--- a/data/testData.xlsx
+++ b/data/testData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\life_restarter\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2388306C-9CFA-4F1E-B9BA-CA3F2A0CE905}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D13E589E-EA39-47B3-BF94-BE5BE7B68A96}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="22">
   <si>
     <t>组名</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -51,43 +51,67 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>无事发生</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>无事发生。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>学习</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>年龄&gt;=7 年龄&lt;18</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>努力学习。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>智力+1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>工作</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>年龄&gt;=18</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>努力工作。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>财富+1</t>
+    <t>男孩出生</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>你出生了，是个男孩。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>女孩出生</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>你出生了，是个女孩。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>年龄=0 性别=男</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>年龄=0 性别=女</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>哪吒出生</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>年龄=0 性别=男 幸运&gt;8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>你出生了，是个球。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>哪吒出生2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>前置事件=哪吒出生</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>你在变大。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>哪吒出生3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>前置事件=哪吒出生2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>你被父亲一刀砍死了。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>死亡</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -416,7 +440,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -449,6 +473,9 @@
       <c r="B2" t="s">
         <v>6</v>
       </c>
+      <c r="C2" t="s">
+        <v>10</v>
+      </c>
       <c r="D2" t="s">
         <v>7</v>
       </c>
@@ -461,13 +488,10 @@
         <v>8</v>
       </c>
       <c r="C3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" t="s">
         <v>9</v>
-      </c>
-      <c r="D3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
@@ -483,8 +507,36 @@
       <c r="D4" t="s">
         <v>14</v>
       </c>
-      <c r="E4" t="s">
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" t="s">
         <v>15</v>
+      </c>
+      <c r="C5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>
